--- a/dtpu_configurations/only_integer32/50mhz/mxu_4x4/timing.xlsx
+++ b/dtpu_configurations/only_integer32/50mhz/mxu_4x4/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>1.2403465509414673</v>
+        <v>5.829390525817871</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.02909949980676174</v>
+        <v>0.012823075987398624</v>
       </c>
     </row>
   </sheetData>
